--- a/v300CRMtemplate.xlsx
+++ b/v300CRMtemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-restore-28-Jul-2025 copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E74AE-6EFB-D542-9842-21CB568B5764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D56C02-D142-EB46-AD4B-43896D4BF355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17960" yWindow="500" windowWidth="17880" windowHeight="21100" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
   </bookViews>
@@ -467,9 +467,6 @@
     <t>SOLO_PROVIDER_TYPE?</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>SOLO_PROVIDER_TYPE_PROVIDER_[Y,#]</t>
   </si>
   <si>
@@ -1011,13 +1008,16 @@
   </si>
   <si>
     <t>M.YY_SUMMARY</t>
+  </si>
+  <si>
+    <t>INDEX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1062,6 +1062,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -1129,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1177,6 +1184,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,6 +1229,160 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6E8AE5-D691-5DEF-4D7D-27A6C8B16F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2336800"/>
+          <a:ext cx="5283200" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>INDEX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0 =  This is top of page. It's that important.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1 =  This is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Additional Property Info</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> (via dropdown)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2 = This is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>License Information </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>(via dropdown)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3 = This is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Contact Information</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (via dropdown)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4 = </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1511,17 +1702,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA547D1D-55E4-9142-B57A-C035D375D836}">
-  <dimension ref="A1:EZ31"/>
+  <dimension ref="A1:EZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView tabSelected="1" topLeftCell="AZ2" workbookViewId="0">
+      <selection activeCell="BJ4" sqref="BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
@@ -1536,7 +1727,7 @@
     <col min="60" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:129" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1720,1600 +1911,1627 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:129" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="P2" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM2" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN2" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AO2" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="AR2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="CA2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="CB2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="CF2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="CG2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ2" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO2" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="CP2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="CQ2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CS2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY2" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA2" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="DC2" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="DD2" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE2" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="DF2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="DG2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="DH2" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="DJ2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="DK2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="DM2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="DN2" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="DO2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="DP2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="DR2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="DS2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="DT2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="DU2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV2" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="DW2" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="DX2" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI2" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO2" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="BQ2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BT2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CA2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="CB2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="CC2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="CD2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="CF2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="CG2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="CH2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="CI2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="CJ2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CK2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CL2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="CM2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="CN2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="CP2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="CQ2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="CR2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="CS2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CT2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="CU2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="CV2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="CY2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CZ2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="DA2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="DB2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="DC2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="DD2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="DE2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="DF2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="DG2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="DH2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="DI2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="DJ2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="DK2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="DL2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="DM2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="DN2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="DO2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="DP2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="DQ2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="DR2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="DS2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="DT2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="DU2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="DX2" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="DY2" s="8" t="s">
-        <v>317</v>
+      <c r="DY2" s="24" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>143</v>
+      <c r="A3" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+      <c r="M3" s="18">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <v>2</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>2</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="19">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="19">
+        <v>3</v>
+      </c>
+      <c r="AX3" s="19">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="19">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="19">
+        <v>3</v>
+      </c>
+      <c r="BA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="19">
+        <v>3</v>
+      </c>
+      <c r="BD3" s="19">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="19">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="19">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="19">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="19">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="19">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DC3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DF3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DH3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DI3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DJ3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DK3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DL3" s="19">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="19">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DP3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DQ3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DR3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DS3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DT3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DU3" s="19">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="8">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="19"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="BY4" s="19"/>
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19"/>
+      <c r="CF4" s="19"/>
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="19"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
+      <c r="CL4" s="19"/>
+      <c r="CM4" s="19"/>
+      <c r="CN4" s="19"/>
+      <c r="CO4" s="19"/>
+      <c r="CP4" s="19"/>
+      <c r="CQ4" s="19"/>
+      <c r="CR4" s="19"/>
+      <c r="CS4" s="19"/>
+      <c r="CT4" s="19"/>
+      <c r="CU4" s="19"/>
+      <c r="CV4" s="19"/>
+      <c r="CW4" s="19"/>
+      <c r="CX4" s="19"/>
+      <c r="CY4" s="19"/>
+      <c r="CZ4" s="19"/>
+      <c r="DA4" s="19"/>
+      <c r="DB4" s="19"/>
+      <c r="DC4" s="19"/>
+      <c r="DD4" s="19"/>
+      <c r="DE4" s="19"/>
+      <c r="DF4" s="19"/>
+      <c r="DG4" s="19"/>
+      <c r="DH4" s="19"/>
+      <c r="DI4" s="19"/>
+      <c r="DJ4" s="19"/>
+      <c r="DK4" s="19"/>
+      <c r="DL4" s="19"/>
+      <c r="DM4" s="19"/>
+      <c r="DN4" s="19"/>
+      <c r="DO4" s="19"/>
+      <c r="DP4" s="19"/>
+      <c r="DQ4" s="19"/>
+      <c r="DR4" s="19"/>
+      <c r="DS4" s="19"/>
+      <c r="DT4" s="19"/>
+      <c r="DU4" s="19"/>
+      <c r="DX4" s="8"/>
+      <c r="DY4" s="8"/>
+    </row>
+    <row r="6" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>310</v>
+      <c r="I6" s="15" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+    <row r="7" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
+    <row r="8" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I8" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>318</v>
+    <row r="14" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
+    <row r="15" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:129" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:156" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:156" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>317</v>
+      <c r="G29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="U29" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="W29" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X29" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z29" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA29" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC29" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE29" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF29" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG29" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH29" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI29" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL29" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN29" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO29" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP29" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ29" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR29" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS29" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT29" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU29" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV29" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW29" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AX29" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY29" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC29" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD29" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE29" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG29" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH29" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI29" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ29" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK29" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL29" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM29" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO29" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR29" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS29" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT29" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV29" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="BX29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY29" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ29" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA29" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB29" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="CC29" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="CD29" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="CE29" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="CF29" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="CG29" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="CH29" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CI29" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CJ29" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="CK29" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="CL29" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="CM29" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CN29" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="CO29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP29" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ29" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR29" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT29" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU29" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW29" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX29" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY29" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ29" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA29" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="DB29" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="DC29" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="DD29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="DE29" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="DF29" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG29" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="DH29" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="DI29" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="DJ29" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DK29" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="DL29" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="DM29" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="DN29" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="DO29" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="DP29" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="DQ29" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="DR29" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="DS29" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="DT29" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="DU29" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="DV29" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="DW29" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="DX29" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="DY29" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="DZ29" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="EA29" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB29" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="EC29" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="ED29" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="EE29" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="EF29" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EG29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="EH29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="EI29" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="EJ29" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="EK29" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="EL29" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="EM29" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="EN29" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="EO29" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="EP29" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="EQ29" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="ER29" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="ES29" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="ET29" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="EU29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="EV29" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="EW29" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="EY29" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="EZ29" s="14" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="C20" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="C21" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="F22" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="F24" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="W27" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="X27" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA27" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB27" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD27" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE27" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF27" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG27" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH27" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI27" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ27" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK27" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL27" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM27" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN27" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO27" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP27" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ27" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR27" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS27" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT27" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV27" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW27" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX27" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY27" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ27" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA27" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB27" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC27" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="BD27" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE27" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="BF27" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="BG27" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH27" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI27" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ27" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK27" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL27" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="BM27" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="BN27" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="BO27" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BP27" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="BQ27" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="BR27" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="BS27" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT27" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="BU27" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV27" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="BW27" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX27" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="BY27" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="BZ27" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA27" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="CB27" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC27" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="CD27" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="CE27" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="CF27" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="CG27" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CH27" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI27" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="CJ27" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="CK27" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="CL27" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="CM27" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="CN27" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="CO27" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="CP27" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="CQ27" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="CR27" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="CS27" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="CT27" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="CU27" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="CV27" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="CW27" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="CX27" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="CY27" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="CZ27" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="DA27" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="DB27" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="DC27" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="DD27" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="DE27" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="DF27" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="DG27" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="DH27" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="DI27" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="DJ27" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="DK27" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="DL27" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="DM27" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="DN27" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="DO27" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="DP27" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="DQ27" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="DR27" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="DS27" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="DT27" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="DU27" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="DV27" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="DW27" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="DX27" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="DY27" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="DZ27" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="EA27" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="EB27" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EC27" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="ED27" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="EE27" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="EF27" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="EG27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="EH27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="EI27" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="EJ27" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="EK27" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="EL27" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="EM27" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="EN27" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="EO27" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="EP27" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="EQ27" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="ER27" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="ES27" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="ET27" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="EU27" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="EV27" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="EW27" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="EX27" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="EY27" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="EZ27" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="8"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="8"/>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="8"/>
-      <c r="AW28" s="8"/>
-      <c r="AX28" s="8"/>
-      <c r="AY28" s="8"/>
-      <c r="AZ28" s="8"/>
-      <c r="BA28" s="8"/>
-      <c r="BB28" s="8"/>
-      <c r="BC28" s="8"/>
-      <c r="BD28" s="8"/>
-      <c r="BE28" s="8"/>
-      <c r="BF28" s="8"/>
-      <c r="BG28" s="8"/>
-      <c r="BH28" s="8"/>
-      <c r="BI28" s="8"/>
-      <c r="BJ28" s="8"/>
-      <c r="BK28" s="8"/>
-      <c r="BL28" s="8"/>
-      <c r="BM28" s="8"/>
-      <c r="BN28" s="8"/>
-      <c r="BO28" s="8"/>
-      <c r="BP28" s="8"/>
-      <c r="BQ28" s="8"/>
-      <c r="BR28" s="8"/>
-      <c r="BS28" s="8"/>
-      <c r="BT28" s="8"/>
-      <c r="BU28" s="8"/>
-      <c r="BV28" s="8"/>
-      <c r="BW28" s="8"/>
-      <c r="BX28" s="8"/>
-      <c r="BY28" s="8"/>
-      <c r="BZ28" s="8"/>
-      <c r="CA28" s="8"/>
-      <c r="CB28" s="8"/>
-      <c r="CC28" s="8"/>
-      <c r="CD28" s="8"/>
-      <c r="CE28" s="8"/>
-      <c r="CF28" s="8"/>
-      <c r="CG28" s="8"/>
-      <c r="CH28" s="8"/>
-      <c r="CI28" s="8"/>
-      <c r="CJ28" s="8"/>
-      <c r="CK28" s="8"/>
-      <c r="CL28" s="8"/>
-      <c r="CM28" s="8"/>
-      <c r="CN28" s="8"/>
-      <c r="CO28" s="8"/>
-      <c r="CP28" s="8"/>
-      <c r="CQ28" s="8"/>
-      <c r="CR28" s="8"/>
-      <c r="CS28" s="8"/>
-      <c r="CT28" s="8"/>
-      <c r="CU28" s="8"/>
-      <c r="CV28" s="8"/>
-      <c r="CW28" s="8"/>
-      <c r="CX28" s="8"/>
-      <c r="CY28" s="8"/>
-      <c r="CZ28" s="8"/>
-      <c r="DA28" s="8"/>
-      <c r="DB28" s="8"/>
-      <c r="DC28" s="8"/>
-      <c r="DD28" s="8"/>
-      <c r="DE28" s="8"/>
-      <c r="DF28" s="8"/>
-      <c r="DG28" s="8"/>
-      <c r="DH28" s="8"/>
-      <c r="DI28" s="8"/>
-      <c r="DJ28" s="8"/>
-      <c r="DK28" s="8"/>
-      <c r="DL28" s="8"/>
-      <c r="DM28" s="8"/>
-      <c r="DN28" s="8"/>
-      <c r="DO28" s="8"/>
-      <c r="DP28" s="8"/>
-      <c r="DQ28" s="8"/>
-      <c r="DR28" s="8"/>
-      <c r="DS28" s="8"/>
-      <c r="DT28" s="8"/>
-      <c r="DU28" s="8"/>
-      <c r="DV28" s="8"/>
-      <c r="DW28" s="8"/>
-      <c r="DX28" s="8"/>
-      <c r="DY28" s="8"/>
-      <c r="DZ28" s="8"/>
-      <c r="EA28" s="8"/>
-      <c r="EB28" s="8"/>
-      <c r="EC28" s="8"/>
-      <c r="ED28" s="8"/>
-      <c r="EE28" s="8"/>
-      <c r="EF28" s="8"/>
-      <c r="EG28" s="8"/>
-      <c r="EH28" s="8"/>
-      <c r="EI28" s="8"/>
-      <c r="EJ28" s="8"/>
-      <c r="EK28" s="8"/>
-      <c r="EL28" s="8"/>
-      <c r="EM28" s="8"/>
-      <c r="EN28" s="8"/>
-      <c r="EO28" s="8"/>
-      <c r="EP28" s="8"/>
-      <c r="EQ28" s="8"/>
-      <c r="ER28" s="8"/>
-      <c r="ES28" s="8"/>
-      <c r="ET28" s="8"/>
-      <c r="EU28" s="8"/>
-      <c r="EV28" s="8"/>
-      <c r="EW28" s="8"/>
-      <c r="EX28" s="8"/>
-      <c r="EY28" s="8"/>
-      <c r="EZ28" s="8"/>
-    </row>
-    <row r="29" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH29" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN29" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO29" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT29" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY29" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA29" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB29" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC29" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE29" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF29" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG29" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL29" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BO29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BP29" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="BQ29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="BR29" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="BS29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU29" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV29" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW29" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="BX29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="BY29" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="BZ29" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="CA29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="CB29" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="CC29" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="CD29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="CE29" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="CF29" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="CG29" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH29" s="8"/>
-      <c r="CI29" s="8"/>
-      <c r="CJ29" s="8"/>
-      <c r="CK29" s="8"/>
-      <c r="CL29" s="8"/>
-      <c r="CM29" s="8"/>
-      <c r="CN29" s="8"/>
-      <c r="CO29" s="8"/>
-      <c r="CP29" s="8"/>
-      <c r="CQ29" s="8"/>
-      <c r="CR29" s="8"/>
-      <c r="CS29" s="8"/>
-      <c r="CT29" s="8"/>
-      <c r="CU29" s="8"/>
-      <c r="CV29" s="8"/>
-      <c r="CW29" s="8"/>
-      <c r="CX29" s="8"/>
-      <c r="CY29" s="8"/>
-      <c r="CZ29" s="8"/>
-      <c r="DA29" s="8"/>
-      <c r="DB29" s="8"/>
-      <c r="DC29" s="8"/>
-      <c r="DD29" s="8"/>
-      <c r="DE29" s="8"/>
-      <c r="DF29" s="8"/>
-      <c r="DG29" s="8"/>
-      <c r="DH29" s="8"/>
-      <c r="DI29" s="8"/>
-      <c r="DJ29" s="8"/>
-      <c r="DK29" s="8"/>
-      <c r="DL29" s="8"/>
-      <c r="DM29" s="8"/>
-      <c r="DN29" s="8"/>
-      <c r="DO29" s="8"/>
-      <c r="DP29" s="8"/>
-      <c r="DQ29" s="8"/>
-      <c r="DR29" s="8"/>
-      <c r="DS29" s="8"/>
-      <c r="DT29" s="8"/>
-      <c r="DU29" s="8"/>
-      <c r="DV29" s="8"/>
-      <c r="DW29" s="8"/>
-      <c r="DX29" s="8"/>
-      <c r="DY29" s="8"/>
-      <c r="DZ29" s="8"/>
-      <c r="EA29" s="8"/>
-      <c r="EB29" s="8"/>
-      <c r="EC29" s="8"/>
-      <c r="ED29" s="8"/>
-      <c r="EE29" s="8"/>
-      <c r="EF29" s="8"/>
-      <c r="EG29" s="8"/>
-      <c r="EH29" s="8"/>
-      <c r="EI29" s="8"/>
-      <c r="EJ29" s="8"/>
-      <c r="EK29" s="8"/>
-      <c r="EL29" s="8"/>
-      <c r="EM29" s="8"/>
-      <c r="EN29" s="8"/>
-      <c r="EO29" s="8"/>
-      <c r="EP29" s="8"/>
-      <c r="EQ29" s="8"/>
-      <c r="ER29" s="8"/>
-      <c r="ES29" s="8"/>
-      <c r="ET29" s="8"/>
-      <c r="EU29" s="8"/>
-      <c r="EV29" s="8"/>
-      <c r="EW29" s="8"/>
-      <c r="EX29" s="8"/>
-      <c r="EY29" s="8"/>
-      <c r="EZ29" s="8"/>
-    </row>
-    <row r="30" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -3470,192 +3688,262 @@
       <c r="EY30" s="8"/>
       <c r="EZ30" s="8"/>
     </row>
-    <row r="31" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B31" s="12" t="s">
+    <row r="31" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X31" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y31" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z31" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA31" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB31" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC31" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD31" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE31" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF31" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG31" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY31" s="8"/>
-      <c r="AZ31" s="8"/>
-      <c r="BA31" s="8"/>
-      <c r="BB31" s="8"/>
-      <c r="BC31" s="8"/>
-      <c r="BD31" s="8"/>
-      <c r="BE31" s="8"/>
-      <c r="BF31" s="8"/>
-      <c r="BG31" s="8"/>
-      <c r="BH31" s="8"/>
-      <c r="BI31" s="8"/>
-      <c r="BJ31" s="8"/>
-      <c r="BK31" s="8"/>
-      <c r="BL31" s="8"/>
-      <c r="BM31" s="8"/>
-      <c r="BN31" s="8"/>
-      <c r="BO31" s="8"/>
-      <c r="BP31" s="8"/>
-      <c r="BQ31" s="8"/>
-      <c r="BR31" s="8"/>
-      <c r="BS31" s="8"/>
-      <c r="BT31" s="8"/>
-      <c r="BU31" s="8"/>
-      <c r="BV31" s="8"/>
-      <c r="BW31" s="8"/>
-      <c r="BX31" s="8"/>
-      <c r="BY31" s="8"/>
-      <c r="BZ31" s="8"/>
-      <c r="CA31" s="8"/>
-      <c r="CB31" s="8"/>
-      <c r="CC31" s="8"/>
-      <c r="CD31" s="8"/>
-      <c r="CE31" s="8"/>
-      <c r="CF31" s="8"/>
-      <c r="CG31" s="8"/>
+      <c r="G31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF31" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BO31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD31" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE31" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG31" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="CH31" s="8"/>
       <c r="CI31" s="8"/>
       <c r="CJ31" s="8"/>
@@ -3728,9 +4016,427 @@
       <c r="EY31" s="8"/>
       <c r="EZ31" s="8"/>
     </row>
+    <row r="32" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="8"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="8"/>
+      <c r="BK32" s="8"/>
+      <c r="BL32" s="8"/>
+      <c r="BM32" s="8"/>
+      <c r="BN32" s="8"/>
+      <c r="BO32" s="8"/>
+      <c r="BP32" s="8"/>
+      <c r="BQ32" s="8"/>
+      <c r="BR32" s="8"/>
+      <c r="BS32" s="8"/>
+      <c r="BT32" s="8"/>
+      <c r="BU32" s="8"/>
+      <c r="BV32" s="8"/>
+      <c r="BW32" s="8"/>
+      <c r="BX32" s="8"/>
+      <c r="BY32" s="8"/>
+      <c r="BZ32" s="8"/>
+      <c r="CA32" s="8"/>
+      <c r="CB32" s="8"/>
+      <c r="CC32" s="8"/>
+      <c r="CD32" s="8"/>
+      <c r="CE32" s="8"/>
+      <c r="CF32" s="8"/>
+      <c r="CG32" s="8"/>
+      <c r="CH32" s="8"/>
+      <c r="CI32" s="8"/>
+      <c r="CJ32" s="8"/>
+      <c r="CK32" s="8"/>
+      <c r="CL32" s="8"/>
+      <c r="CM32" s="8"/>
+      <c r="CN32" s="8"/>
+      <c r="CO32" s="8"/>
+      <c r="CP32" s="8"/>
+      <c r="CQ32" s="8"/>
+      <c r="CR32" s="8"/>
+      <c r="CS32" s="8"/>
+      <c r="CT32" s="8"/>
+      <c r="CU32" s="8"/>
+      <c r="CV32" s="8"/>
+      <c r="CW32" s="8"/>
+      <c r="CX32" s="8"/>
+      <c r="CY32" s="8"/>
+      <c r="CZ32" s="8"/>
+      <c r="DA32" s="8"/>
+      <c r="DB32" s="8"/>
+      <c r="DC32" s="8"/>
+      <c r="DD32" s="8"/>
+      <c r="DE32" s="8"/>
+      <c r="DF32" s="8"/>
+      <c r="DG32" s="8"/>
+      <c r="DH32" s="8"/>
+      <c r="DI32" s="8"/>
+      <c r="DJ32" s="8"/>
+      <c r="DK32" s="8"/>
+      <c r="DL32" s="8"/>
+      <c r="DM32" s="8"/>
+      <c r="DN32" s="8"/>
+      <c r="DO32" s="8"/>
+      <c r="DP32" s="8"/>
+      <c r="DQ32" s="8"/>
+      <c r="DR32" s="8"/>
+      <c r="DS32" s="8"/>
+      <c r="DT32" s="8"/>
+      <c r="DU32" s="8"/>
+      <c r="DV32" s="8"/>
+      <c r="DW32" s="8"/>
+      <c r="DX32" s="8"/>
+      <c r="DY32" s="8"/>
+      <c r="DZ32" s="8"/>
+      <c r="EA32" s="8"/>
+      <c r="EB32" s="8"/>
+      <c r="EC32" s="8"/>
+      <c r="ED32" s="8"/>
+      <c r="EE32" s="8"/>
+      <c r="EF32" s="8"/>
+      <c r="EG32" s="8"/>
+      <c r="EH32" s="8"/>
+      <c r="EI32" s="8"/>
+      <c r="EJ32" s="8"/>
+      <c r="EK32" s="8"/>
+      <c r="EL32" s="8"/>
+      <c r="EM32" s="8"/>
+      <c r="EN32" s="8"/>
+      <c r="EO32" s="8"/>
+      <c r="EP32" s="8"/>
+      <c r="EQ32" s="8"/>
+      <c r="ER32" s="8"/>
+      <c r="ES32" s="8"/>
+      <c r="ET32" s="8"/>
+      <c r="EU32" s="8"/>
+      <c r="EV32" s="8"/>
+      <c r="EW32" s="8"/>
+      <c r="EX32" s="8"/>
+      <c r="EY32" s="8"/>
+      <c r="EZ32" s="8"/>
+    </row>
+    <row r="33" spans="1:156" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA33" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB33" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC33" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD33" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE33" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="8"/>
+      <c r="BJ33" s="8"/>
+      <c r="BK33" s="8"/>
+      <c r="BL33" s="8"/>
+      <c r="BM33" s="8"/>
+      <c r="BN33" s="8"/>
+      <c r="BO33" s="8"/>
+      <c r="BP33" s="8"/>
+      <c r="BQ33" s="8"/>
+      <c r="BR33" s="8"/>
+      <c r="BS33" s="8"/>
+      <c r="BT33" s="8"/>
+      <c r="BU33" s="8"/>
+      <c r="BV33" s="8"/>
+      <c r="BW33" s="8"/>
+      <c r="BX33" s="8"/>
+      <c r="BY33" s="8"/>
+      <c r="BZ33" s="8"/>
+      <c r="CA33" s="8"/>
+      <c r="CB33" s="8"/>
+      <c r="CC33" s="8"/>
+      <c r="CD33" s="8"/>
+      <c r="CE33" s="8"/>
+      <c r="CF33" s="8"/>
+      <c r="CG33" s="8"/>
+      <c r="CH33" s="8"/>
+      <c r="CI33" s="8"/>
+      <c r="CJ33" s="8"/>
+      <c r="CK33" s="8"/>
+      <c r="CL33" s="8"/>
+      <c r="CM33" s="8"/>
+      <c r="CN33" s="8"/>
+      <c r="CO33" s="8"/>
+      <c r="CP33" s="8"/>
+      <c r="CQ33" s="8"/>
+      <c r="CR33" s="8"/>
+      <c r="CS33" s="8"/>
+      <c r="CT33" s="8"/>
+      <c r="CU33" s="8"/>
+      <c r="CV33" s="8"/>
+      <c r="CW33" s="8"/>
+      <c r="CX33" s="8"/>
+      <c r="CY33" s="8"/>
+      <c r="CZ33" s="8"/>
+      <c r="DA33" s="8"/>
+      <c r="DB33" s="8"/>
+      <c r="DC33" s="8"/>
+      <c r="DD33" s="8"/>
+      <c r="DE33" s="8"/>
+      <c r="DF33" s="8"/>
+      <c r="DG33" s="8"/>
+      <c r="DH33" s="8"/>
+      <c r="DI33" s="8"/>
+      <c r="DJ33" s="8"/>
+      <c r="DK33" s="8"/>
+      <c r="DL33" s="8"/>
+      <c r="DM33" s="8"/>
+      <c r="DN33" s="8"/>
+      <c r="DO33" s="8"/>
+      <c r="DP33" s="8"/>
+      <c r="DQ33" s="8"/>
+      <c r="DR33" s="8"/>
+      <c r="DS33" s="8"/>
+      <c r="DT33" s="8"/>
+      <c r="DU33" s="8"/>
+      <c r="DV33" s="8"/>
+      <c r="DW33" s="8"/>
+      <c r="DX33" s="8"/>
+      <c r="DY33" s="8"/>
+      <c r="DZ33" s="8"/>
+      <c r="EA33" s="8"/>
+      <c r="EB33" s="8"/>
+      <c r="EC33" s="8"/>
+      <c r="ED33" s="8"/>
+      <c r="EE33" s="8"/>
+      <c r="EF33" s="8"/>
+      <c r="EG33" s="8"/>
+      <c r="EH33" s="8"/>
+      <c r="EI33" s="8"/>
+      <c r="EJ33" s="8"/>
+      <c r="EK33" s="8"/>
+      <c r="EL33" s="8"/>
+      <c r="EM33" s="8"/>
+      <c r="EN33" s="8"/>
+      <c r="EO33" s="8"/>
+      <c r="EP33" s="8"/>
+      <c r="EQ33" s="8"/>
+      <c r="ER33" s="8"/>
+      <c r="ES33" s="8"/>
+      <c r="ET33" s="8"/>
+      <c r="EU33" s="8"/>
+      <c r="EV33" s="8"/>
+      <c r="EW33" s="8"/>
+      <c r="EX33" s="8"/>
+      <c r="EY33" s="8"/>
+      <c r="EZ33" s="8"/>
+    </row>
+    <row r="34" spans="1:156" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:156" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>